--- a/Practice_Lamp-And-Switch/Documents/Lamp_Turn_Combination.xlsx
+++ b/Practice_Lamp-And-Switch/Documents/Lamp_Turn_Combination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\直樹\Desktop\Unity\Project\Practice_Lamp-And-Switch\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E96A05-74EE-4492-ABD4-BA36B0CEA0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D73B52-0F32-4CF0-BA70-0468DF19B66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="735" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="2244" windowWidth="17280" windowHeight="8760" tabRatio="735" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_of_Contents" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
   <si>
     <t>目次 (Table of Contents)</t>
     <rPh sb="0" eb="2">
@@ -1333,39 +1333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マテリアルを変えるところ</t>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタンごとに状態ごとの処理を行えるようにプログラムは組んだ。</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>状態ごとの処理はできていない</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>状態ごとの処理を作る</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
@@ -1375,6 +1342,16 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マテリアルの色を変えることができた。</t>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1386,7 +1363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,15 +1457,6 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1673,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1793,7 +1761,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3623,9 +3590,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5770EF80-0056-4B33-9598-98C20E70B974}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B3:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -3636,13 +3605,8 @@
       <c r="A1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3651,11 +3615,6 @@
       </c>
       <c r="B3" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
